--- a/Excel-XLSX/UN-UGA.xlsx
+++ b/Excel-XLSX/UN-UGA.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>68SjwG</t>
+    <t>2mK7Ae</t>
   </si>
   <si>
     <t>1961</t>
@@ -3672,13 +3672,13 @@
     <t>603</t>
   </si>
   <si>
-    <t>40662</t>
-  </si>
-  <si>
-    <t>2876</t>
-  </si>
-  <si>
-    <t>1195</t>
+    <t>41693</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>2248</t>
   </si>
   <si>
     <t>604</t>
@@ -3696,28 +3696,28 @@
     <t>608</t>
   </si>
   <si>
-    <t>520126</t>
-  </si>
-  <si>
-    <t>5864</t>
+    <t>556998</t>
+  </si>
+  <si>
+    <t>4882</t>
   </si>
   <si>
     <t>609</t>
   </si>
   <si>
-    <t>25587</t>
-  </si>
-  <si>
-    <t>26305</t>
+    <t>36759</t>
+  </si>
+  <si>
+    <t>22721</t>
   </si>
   <si>
     <t>610</t>
   </si>
   <si>
-    <t>8150</t>
-  </si>
-  <si>
-    <t>4885</t>
+    <t>10718</t>
+  </si>
+  <si>
+    <t>4116</t>
   </si>
   <si>
     <t>611</t>
@@ -3732,25 +3732,19 @@
     <t>614</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NGR</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
     <t>615</t>
   </si>
   <si>
+    <t>648</t>
+  </si>
+  <si>
     <t>616</t>
   </si>
   <si>
-    <t>21861</t>
-  </si>
-  <si>
-    <t>2775</t>
+    <t>22393</t>
+  </si>
+  <si>
+    <t>1822</t>
   </si>
   <si>
     <t>617</t>
@@ -3762,28 +3756,31 @@
     <t>619</t>
   </si>
   <si>
-    <t>48740</t>
-  </si>
-  <si>
-    <t>2644</t>
+    <t>49122</t>
+  </si>
+  <si>
+    <t>1710</t>
   </si>
   <si>
     <t>620</t>
   </si>
   <si>
-    <t>948145</t>
-  </si>
-  <si>
-    <t>6312</t>
+    <t>975020</t>
+  </si>
+  <si>
+    <t>12874</t>
   </si>
   <si>
     <t>621</t>
   </si>
   <si>
+    <t>10284</t>
+  </si>
+  <si>
     <t>622</t>
   </si>
   <si>
-    <t>41946</t>
+    <t>65367</t>
   </si>
   <si>
     <t>623</t>
@@ -3796,6 +3793,9 @@
   </si>
   <si>
     <t>627</t>
+  </si>
+  <si>
+    <t>3200000</t>
   </si>
   <si>
     <t>628</t>
@@ -45100,10 +45100,10 @@
         <v>30</v>
       </c>
       <c r="N602" s="2" t="s">
-        <v>291</v>
+        <v>517</v>
       </c>
       <c r="O602" s="2" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="P602" s="2" t="s">
         <v>32</v>
@@ -45304,7 +45304,7 @@
         <v>30</v>
       </c>
       <c r="N605" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O605" s="2" t="s">
         <v>90</v>
@@ -45443,7 +45443,7 @@
         <v>51</v>
       </c>
       <c r="O607" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P607" s="2" t="s">
         <v>32</v>
@@ -45508,7 +45508,7 @@
         <v>30</v>
       </c>
       <c r="N608" s="2" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="O608" s="2" t="s">
         <v>32</v>
@@ -45848,7 +45848,7 @@
         <v>30</v>
       </c>
       <c r="N613" s="2" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="O613" s="2" t="s">
         <v>135</v>
@@ -45960,16 +45960,16 @@
         <v>1215</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>1238</v>
+        <v>471</v>
       </c>
       <c r="H615" s="1" t="s">
-        <v>1239</v>
+        <v>472</v>
       </c>
       <c r="I615" s="1" t="s">
-        <v>1240</v>
+        <v>473</v>
       </c>
       <c r="J615" s="2" t="s">
         <v>28</v>
@@ -46022,7 +46022,7 @@
         <v>22</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>1215</v>
@@ -46052,10 +46052,10 @@
         <v>30</v>
       </c>
       <c r="N616" s="2" t="s">
-        <v>1190</v>
+        <v>1239</v>
       </c>
       <c r="O616" s="2" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="P616" s="2" t="s">
         <v>32</v>
@@ -46090,7 +46090,7 @@
         <v>22</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>1215</v>
@@ -46120,10 +46120,10 @@
         <v>30</v>
       </c>
       <c r="N617" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="O617" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="P617" s="2" t="s">
         <v>32</v>
@@ -46158,7 +46158,7 @@
         <v>22</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>1215</v>
@@ -46188,7 +46188,7 @@
         <v>30</v>
       </c>
       <c r="N618" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O618" s="2" t="s">
         <v>32</v>
@@ -46226,7 +46226,7 @@
         <v>22</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>1215</v>
@@ -46294,7 +46294,7 @@
         <v>22</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>1215</v>
@@ -46324,10 +46324,10 @@
         <v>30</v>
       </c>
       <c r="N620" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="O620" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="P620" s="2" t="s">
         <v>32</v>
@@ -46362,7 +46362,7 @@
         <v>22</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>1215</v>
@@ -46392,13 +46392,13 @@
         <v>30</v>
       </c>
       <c r="N621" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O621" s="2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="P621" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q621" s="2" t="s">
         <v>32</v>
@@ -46430,7 +46430,7 @@
         <v>22</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>1215</v>
@@ -46475,7 +46475,7 @@
         <v>32</v>
       </c>
       <c r="S622" s="2" t="s">
-        <v>52</v>
+        <v>1252</v>
       </c>
       <c r="T622" s="2" t="s">
         <v>32</v>
@@ -46498,7 +46498,7 @@
         <v>22</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1215</v>
@@ -46528,10 +46528,10 @@
         <v>30</v>
       </c>
       <c r="N623" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="P623" s="2" t="s">
         <v>32</v>
@@ -46566,7 +46566,7 @@
         <v>22</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>1215</v>
@@ -46596,10 +46596,10 @@
         <v>30</v>
       </c>
       <c r="N624" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P624" s="2" t="s">
         <v>32</v>
@@ -46702,7 +46702,7 @@
         <v>22</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>1215</v>
@@ -46770,7 +46770,7 @@
         <v>22</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>1215</v>
@@ -46800,7 +46800,7 @@
         <v>30</v>
       </c>
       <c r="N627" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O627" s="2" t="s">
         <v>32</v>
@@ -46838,7 +46838,7 @@
         <v>22</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>1215</v>
@@ -46892,7 +46892,7 @@
         <v>33</v>
       </c>
       <c r="V628" s="2" t="s">
-        <v>1213</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="629">
@@ -46936,7 +46936,7 @@
         <v>30</v>
       </c>
       <c r="N629" s="2" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="O629" s="2" t="s">
         <v>68</v>
